--- a/biology/Botanique/Vicia_bithynica/Vicia_bithynica.xlsx
+++ b/biology/Botanique/Vicia_bithynica/Vicia_bithynica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vicia bithynica, la vesce de Bithynie, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Europe et du bassin méditerranéen. Ce sont des plantes herbacées annuelles, à port dressé ou grimpant, à fleurs de type papilionacé, pouvant atteindre 60 cm de haut
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vicia bithynica est une plante herbacée annuelle, à port grimpant. Les tiges  peu pileuses ou subglabres, pouvant atteindre 50 à 60 cm de long, sont dressées ou ascendantes, anguleuses à section carrée. Les feuilles, pétiolées, de 16 à 45 mm de long, sont composées paripennées, avec 1 à 3 paires de folioles oblongues-elliptiques à étroitement lancéolées ou linéaires, de 1 à 7 cm de long sur 3 à 22 mm de large. Elles sont terminées par une vrille simple ou ramifiée et présentent des stipules de 10 à 15 mm de long, semi-sagittées ou lancéolées, incisées-dentées avec 6 dents ou plus, sans nectaire[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vicia bithynica est une plante herbacée annuelle, à port grimpant. Les tiges  peu pileuses ou subglabres, pouvant atteindre 50 à 60 cm de long, sont dressées ou ascendantes, anguleuses à section carrée. Les feuilles, pétiolées, de 16 à 45 mm de long, sont composées paripennées, avec 1 à 3 paires de folioles oblongues-elliptiques à étroitement lancéolées ou linéaires, de 1 à 7 cm de long sur 3 à 22 mm de large. Elles sont terminées par une vrille simple ou ramifiée et présentent des stipules de 10 à 15 mm de long, semi-sagittées ou lancéolées, incisées-dentées avec 6 dents ou plus, sans nectaire,.
 L'inflorescence axillaire, portée par un pédoncule de 0,4 à 7 cm de long, compte 1 à 3 fleurs portées par un pédicelle de 3 à 6 mm de long. Le calice, pileux, de  8 à 11 mm de long, est actinomorphe ou légèrement zygomorphe, en forme de cloche, à base presque symétrique. Il forme un tube de 3,5 à 4 mm de long et présente des lobes triangulaires, de 4,5 à 7 mm de long, presque égaux, plus longs que le tube.
 La corolle papilionacée, généralement bicolore, se compose d'un étendard obovale spatulé, en général de couleur pourpre violacé, de 14 à 20 mm de long, des ailes blanchâtres ou jaunâtres, de 12,5 à 17  mm de long, et une carène blanchâtre droite et  obtuse.
 L'androcée forme un tube oblique à la fin, avec des anthères oblongues d'environ 0,4 mm de long.
-L'ovaire est pubescent, avec un style déprimé[2],[3].
-Le fruit est une gousse étroitement oblongue, comprimée, bubescente, ciliée sur les bords, nettement resserrée entre les graines, de 35 à 45 mm de long sur 7 à 11 mm de large, contenant  2 à 7 graines. Celles-ci, lisses, de couleur brun foncé et de 4 mm de diamètre, sont de forme sphéroïdale subcubique, plus ou moins comprimées. Elle présentent un hile de 1,8 mm de long[2],[3].
+L'ovaire est pubescent, avec un style déprimé,.
+Le fruit est une gousse étroitement oblongue, comprimée, bubescente, ciliée sur les bords, nettement resserrée entre les graines, de 35 à 45 mm de long sur 7 à 11 mm de large, contenant  2 à 7 graines. Celles-ci, lisses, de couleur brun foncé et de 4 mm de diamètre, sont de forme sphéroïdale subcubique, plus ou moins comprimées. Elle présentent un hile de 1,8 mm de long,.
 </t>
         </is>
       </c>
@@ -547,13 +561,15 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Vicia bithynica s'étend dans l'Ancien Monde de l'Europe occidentale au sous-continent indien.
-On la trouve notamment en Europe méridionale, du Portugal à la Grèce et à la Bulgarie et la Crimée, en Europe occidentale (France, Grande-Bretagne), En Afrique du Nord (Maghreb) et en Macaronésie (Açores), en Asie de l'Ouest (Turquie, Liban, Syrie, Chypre), dans la région du Caucase, ainsi qu'au Pakistan et dans l'ouest de l'Himalaya (Inde : Jammu-et-Cachemire et Himachal Pradesh)[4],[5].
-En France, cette espèce, à répartition méditerranéo-atlantique présente surtout dans les régions littorales, s'étend vers la Bretagne. Une station importante a été signalée depuis 2007 dans le Morbihan[6].
-L'espèce a été introduite en Belgique, dans l'ancienne Tchécoslovaquie, en Jordanie et en Israël[4].
-Vicia bithynica se rencontre dans les champs, les friches, les pâturages, les haies, jusqu'à 1000 mètres d'altitude[7].
+On la trouve notamment en Europe méridionale, du Portugal à la Grèce et à la Bulgarie et la Crimée, en Europe occidentale (France, Grande-Bretagne), En Afrique du Nord (Maghreb) et en Macaronésie (Açores), en Asie de l'Ouest (Turquie, Liban, Syrie, Chypre), dans la région du Caucase, ainsi qu'au Pakistan et dans l'ouest de l'Himalaya (Inde : Jammu-et-Cachemire et Himachal Pradesh),.
+En France, cette espèce, à répartition méditerranéo-atlantique présente surtout dans les régions littorales, s'étend vers la Bretagne. Une station importante a été signalée depuis 2007 dans le Morbihan.
+L'espèce a été introduite en Belgique, dans l'ancienne Tchécoslovaquie, en Jordanie et en Israël.
+Vicia bithynica se rencontre dans les champs, les friches, les pâturages, les haies, jusqu'à 1000 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -582,14 +598,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (9 août 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (9 août 2019) :
 Ervum bithynicum (L.) Stank.
 Lathyrus bithynicus L. (basionyme)
-Lathyrus tumidus Willdenow[8]
-Vicia cordata Hoppe[8],
-Vicia sativum ssp. cordata (Hoppe) Battandier[8]</t>
+Lathyrus tumidus Willdenow
+Vicia cordata Hoppe,
+Vicia sativum ssp. cordata (Hoppe) Battandier</t>
         </is>
       </c>
     </row>
